--- a/global_variable_template_new.xlsx
+++ b/global_variable_template_new.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shibin.hoo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Family/Desktop/git-repo/EllementoVariable/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="5715" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15120" windowHeight="14220" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,15 @@
     <sheet name="IO Mapping" sheetId="8" r:id="rId6"/>
     <sheet name="HMI Internal" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="400">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -1224,17 +1230,23 @@
   </si>
   <si>
     <t>pump_h_RedundantPumpSelect</t>
+  </si>
+  <si>
+    <t>DUMMY_BIT_TRUE</t>
+  </si>
+  <si>
+    <t>DUMMY_BIT_FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1246,6 +1258,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1277,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1292,8 +1311,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1577,17 +1597,17 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1607,7 +1627,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20000</v>
       </c>
@@ -1627,7 +1647,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1664,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -1659,7 +1679,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>32</v>
       </c>
@@ -1673,14 +1693,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1700,21 +1720,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1734,7 +1754,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -1754,7 +1774,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1769,7 +1789,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -1784,7 +1804,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>138</v>
       </c>
@@ -1799,7 +1819,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>147</v>
       </c>
@@ -1814,7 +1834,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>148</v>
       </c>
@@ -1829,7 +1849,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1844,7 +1864,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>149</v>
       </c>
@@ -1859,7 +1879,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>139</v>
       </c>
@@ -1877,7 +1897,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>140</v>
       </c>
@@ -1895,7 +1915,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>141</v>
       </c>
@@ -1913,7 +1933,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>142</v>
       </c>
@@ -1931,7 +1951,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>143</v>
       </c>
@@ -1949,7 +1969,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +1987,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>144</v>
       </c>
@@ -1985,7 +2005,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>145</v>
       </c>
@@ -2003,7 +2023,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -2021,7 +2041,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>146</v>
       </c>
@@ -2039,7 +2059,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>151</v>
       </c>
@@ -2057,7 +2077,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>155</v>
       </c>
@@ -2076,7 +2096,7 @@
       <c r="G21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>156</v>
       </c>
@@ -2095,7 +2115,7 @@
       <c r="G22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>154</v>
       </c>
@@ -2114,225 +2134,225 @@
       <c r="G23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E27" s="1"/>
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E28" s="1"/>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E29" s="1"/>
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E33" s="1"/>
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E34" s="1"/>
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E35" s="1"/>
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E36" s="1"/>
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E81" s="1"/>
     </row>
   </sheetData>
@@ -2349,14 +2369,14 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2367,7 +2387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12000</v>
       </c>
@@ -2378,7 +2398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -2386,7 +2406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -2394,7 +2414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -2402,7 +2422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -2410,487 +2430,487 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>137</v>
       </c>
@@ -2909,12 +2929,12 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2925,7 +2945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2936,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2947,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2958,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2969,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2980,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2991,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3007,20 +3027,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3040,7 +3060,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11000</v>
       </c>
@@ -3060,7 +3080,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>161</v>
       </c>
@@ -3077,7 +3097,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>162</v>
       </c>
@@ -3094,7 +3114,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>160</v>
       </c>
@@ -3111,7 +3131,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>163</v>
       </c>
@@ -3128,7 +3148,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>394</v>
       </c>
@@ -3145,7 +3165,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>164</v>
       </c>
@@ -3162,7 +3182,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>165</v>
       </c>
@@ -3179,7 +3199,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>166</v>
       </c>
@@ -3196,7 +3216,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>397</v>
       </c>
@@ -3213,7 +3233,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>390</v>
       </c>
@@ -3230,7 +3250,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>391</v>
       </c>
@@ -3247,15 +3267,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
     </row>
   </sheetData>
@@ -3269,15 +3289,15 @@
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3294,7 +3314,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -3308,7 +3328,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -3322,7 +3342,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -3336,7 +3356,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -3350,7 +3370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -3364,7 +3384,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -3378,7 +3398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -3392,7 +3412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -3406,7 +3426,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -3420,7 +3440,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -3434,7 +3454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -3448,7 +3468,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>181</v>
       </c>
@@ -3462,7 +3482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -3476,7 +3496,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -3490,7 +3510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -3504,7 +3524,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -3518,7 +3538,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -3532,7 +3552,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -3546,7 +3566,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -3560,7 +3580,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>195</v>
       </c>
@@ -3574,7 +3594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>196</v>
       </c>
@@ -3588,7 +3608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>197</v>
       </c>
@@ -3602,7 +3622,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>198</v>
       </c>
@@ -3616,7 +3636,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -3630,7 +3650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -3644,7 +3664,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -3658,7 +3678,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>202</v>
       </c>
@@ -3672,7 +3692,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>203</v>
       </c>
@@ -3686,7 +3706,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -3700,7 +3720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>205</v>
       </c>
@@ -3714,7 +3734,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>236</v>
       </c>
@@ -3728,7 +3748,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -3742,7 +3762,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>238</v>
       </c>
@@ -3756,7 +3776,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>239</v>
       </c>
@@ -3770,7 +3790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>240</v>
       </c>
@@ -3784,7 +3804,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>241</v>
       </c>
@@ -3798,7 +3818,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>242</v>
       </c>
@@ -3812,7 +3832,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>243</v>
       </c>
@@ -3826,7 +3846,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>244</v>
       </c>
@@ -3840,7 +3860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>245</v>
       </c>
@@ -3854,7 +3874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>246</v>
       </c>
@@ -3868,7 +3888,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>247</v>
       </c>
@@ -3882,7 +3902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>248</v>
       </c>
@@ -3896,7 +3916,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>249</v>
       </c>
@@ -3910,7 +3930,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>250</v>
       </c>
@@ -3924,7 +3944,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>251</v>
       </c>
@@ -3938,7 +3958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>252</v>
       </c>
@@ -3952,7 +3972,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>253</v>
       </c>
@@ -3966,7 +3986,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>254</v>
       </c>
@@ -3980,7 +4000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>255</v>
       </c>
@@ -3994,7 +4014,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>256</v>
       </c>
@@ -4008,7 +4028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>257</v>
       </c>
@@ -4022,7 +4042,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -4036,7 +4056,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>259</v>
       </c>
@@ -4050,7 +4070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>260</v>
       </c>
@@ -4064,7 +4084,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>261</v>
       </c>
@@ -4078,7 +4098,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>262</v>
       </c>
@@ -4092,7 +4112,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>263</v>
       </c>
@@ -4106,7 +4126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>264</v>
       </c>
@@ -4120,7 +4140,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>265</v>
       </c>
@@ -4134,7 +4154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>266</v>
       </c>
@@ -4148,7 +4168,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>267</v>
       </c>
@@ -4162,7 +4182,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>298</v>
       </c>
@@ -4176,7 +4196,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>299</v>
       </c>
@@ -4190,7 +4210,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>300</v>
       </c>
@@ -4204,7 +4224,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>301</v>
       </c>
@@ -4218,7 +4238,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>302</v>
       </c>
@@ -4232,7 +4252,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>303</v>
       </c>
@@ -4246,7 +4266,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>304</v>
       </c>
@@ -4260,7 +4280,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>305</v>
       </c>
@@ -4274,7 +4294,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>314</v>
       </c>
@@ -4288,7 +4308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>315</v>
       </c>
@@ -4302,7 +4322,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>316</v>
       </c>
@@ -4316,7 +4336,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>317</v>
       </c>
@@ -4330,7 +4350,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>318</v>
       </c>
@@ -4344,7 +4364,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>319</v>
       </c>
@@ -4358,7 +4378,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>320</v>
       </c>
@@ -4372,7 +4392,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>330</v>
       </c>
@@ -4386,7 +4406,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>332</v>
       </c>
@@ -4400,7 +4420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>334</v>
       </c>
@@ -4414,7 +4434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>336</v>
       </c>
@@ -4428,7 +4448,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>338</v>
       </c>
@@ -4442,7 +4462,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>340</v>
       </c>
@@ -4456,7 +4476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>342</v>
       </c>
@@ -4473,7 +4493,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>344</v>
       </c>
@@ -4487,7 +4507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>345</v>
       </c>
@@ -4501,7 +4521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>346</v>
       </c>
@@ -4515,7 +4535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>354</v>
       </c>
@@ -4529,7 +4549,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>355</v>
       </c>
@@ -4543,7 +4563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>356</v>
       </c>
@@ -4557,7 +4577,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>357</v>
       </c>
@@ -4571,7 +4591,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>358</v>
       </c>
@@ -4585,7 +4605,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>359</v>
       </c>
@@ -4599,7 +4619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>360</v>
       </c>
@@ -4616,7 +4636,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>361</v>
       </c>
@@ -4630,7 +4650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>362</v>
       </c>
@@ -4644,7 +4664,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>363</v>
       </c>
@@ -4658,7 +4678,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>364</v>
       </c>
@@ -4672,7 +4692,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>365</v>
       </c>
@@ -4686,7 +4706,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>366</v>
       </c>
@@ -4700,7 +4720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>367</v>
       </c>
@@ -4714,7 +4734,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>368</v>
       </c>
@@ -4728,7 +4748,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>369</v>
       </c>
@@ -4742,7 +4762,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>370</v>
       </c>
@@ -4759,7 +4779,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>371</v>
       </c>
@@ -4773,7 +4793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>372</v>
       </c>
@@ -4787,7 +4807,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>373</v>
       </c>
@@ -4808,21 +4828,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -4836,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -4851,7 +4871,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>169</v>
       </c>
@@ -4863,7 +4883,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>170</v>
       </c>
@@ -4875,7 +4895,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>171</v>
       </c>
@@ -4887,7 +4907,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>396</v>
       </c>
@@ -4899,7 +4919,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>395</v>
       </c>
@@ -4911,7 +4931,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>172</v>
       </c>
@@ -4923,7 +4943,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>173</v>
       </c>
@@ -4932,6 +4952,28 @@
       </c>
       <c r="D9">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/global_variable_template_new.xlsx
+++ b/global_variable_template_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15120" windowHeight="14220" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15120" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="399">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>addr</t>
-  </si>
-  <si>
-    <t>INT</t>
   </si>
   <si>
     <t>Addr</t>
@@ -1596,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1624,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1638,13 +1635,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1655,24 +1652,24 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <f>E2*(COUNTA('Sensor List'!B:B)-1) + (COUNTA('Sensor List'!C:C)-1)</f>
@@ -1681,13 +1678,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -1751,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1759,7 +1756,7 @@
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1776,7 +1773,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1791,7 +1788,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1800,28 +1797,28 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1836,22 +1833,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1866,7 +1863,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1875,13 +1872,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1893,13 +1890,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1908,16 +1905,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1926,16 +1923,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1947,31 +1944,31 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1983,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2001,31 +1998,31 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -2037,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -2052,34 +2049,34 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2091,14 +2088,14 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2107,29 +2104,29 @@
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="1"/>
       <c r="K23" s="1"/>
@@ -2381,10 +2378,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2392,527 +2389,527 @@
         <v>12000</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2926,7 +2923,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2947,7 +2944,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2958,7 +2955,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2969,7 +2966,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2980,7 +2977,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2991,7 +2988,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -3002,7 +2999,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -3057,7 +3054,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3065,7 +3062,7 @@
         <v>11000</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3077,46 +3074,46 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
         <v>157</v>
       </c>
-      <c r="E4" t="s">
-        <v>158</v>
-      </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3128,12 +3125,12 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3145,12 +3142,12 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3162,63 +3159,63 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" t="s">
         <v>392</v>
       </c>
-      <c r="E8" t="s">
-        <v>393</v>
-      </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" t="s">
         <v>157</v>
       </c>
-      <c r="E10" t="s">
-        <v>158</v>
-      </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3230,12 +3227,12 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3247,24 +3244,24 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3311,15 +3308,15 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -3330,10 +3327,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3344,10 +3341,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -3358,10 +3355,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -3372,10 +3369,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -3386,10 +3383,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -3400,10 +3397,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -3414,10 +3411,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -3428,10 +3425,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -3442,10 +3439,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -3456,10 +3453,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -3470,10 +3467,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -3484,10 +3481,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -3498,10 +3495,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -3512,10 +3509,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -3526,10 +3523,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -3540,10 +3537,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -3554,10 +3551,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -3568,10 +3565,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -3582,10 +3579,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -3596,10 +3593,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -3610,10 +3607,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -3624,10 +3621,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -3638,10 +3635,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -3652,10 +3649,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -3666,10 +3663,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -3680,10 +3677,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -3694,10 +3691,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -3708,10 +3705,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -3722,10 +3719,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -3736,10 +3733,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -3750,10 +3747,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -3764,10 +3761,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -3778,10 +3775,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -3792,10 +3789,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -3806,10 +3803,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -3820,10 +3817,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -3834,10 +3831,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -3848,10 +3845,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -3862,10 +3859,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -3876,10 +3873,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -3890,10 +3887,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -3904,10 +3901,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -3918,10 +3915,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -3932,10 +3929,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -3946,10 +3943,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -3960,10 +3957,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -3974,10 +3971,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -3988,10 +3985,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -4002,10 +3999,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -4016,10 +4013,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -4030,10 +4027,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -4044,10 +4041,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -4058,10 +4055,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -4072,10 +4069,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -4086,10 +4083,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -4100,10 +4097,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -4114,10 +4111,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -4128,10 +4125,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -4142,10 +4139,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -4156,10 +4153,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -4170,10 +4167,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -4184,220 +4181,220 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B73" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B75" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>329</v>
+      </c>
+      <c r="B79" t="s">
         <v>330</v>
-      </c>
-      <c r="B79" t="s">
-        <v>331</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -4408,10 +4405,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>331</v>
+      </c>
+      <c r="B80" t="s">
         <v>332</v>
-      </c>
-      <c r="B80" t="s">
-        <v>333</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -4422,10 +4419,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -4436,10 +4433,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -4450,10 +4447,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -4464,10 +4461,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -4478,11 +4475,11 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>341</v>
+      </c>
+      <c r="B85" t="s">
         <v>342</v>
       </c>
-      <c r="B85" t="s">
-        <v>343</v>
-      </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
@@ -4490,15 +4487,15 @@
         <v>-1</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B86" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -4509,10 +4506,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -4523,10 +4520,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -4537,10 +4534,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -4551,10 +4548,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -4565,10 +4562,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -4579,10 +4576,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B92" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -4593,10 +4590,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -4607,10 +4604,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -4621,10 +4618,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B95" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -4633,15 +4630,15 @@
         <v>-1</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B96" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -4652,10 +4649,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -4666,10 +4663,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B98" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -4680,10 +4677,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -4694,10 +4691,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -4708,10 +4705,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -4722,10 +4719,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B102" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -4736,10 +4733,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B103" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -4750,10 +4747,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B104" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -4764,10 +4761,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B105" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -4776,15 +4773,15 @@
         <v>-1</v>
       </c>
       <c r="E105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -4795,10 +4792,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B107" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -4809,10 +4806,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B108" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -4830,7 +4827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4847,10 +4844,10 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
         <v>174</v>
-      </c>
-      <c r="C1" t="s">
-        <v>175</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -4861,10 +4858,10 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
         <v>167</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4873,10 +4870,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4885,10 +4882,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4897,7 +4894,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -4909,10 +4906,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4921,10 +4918,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4933,10 +4930,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4945,7 +4942,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -4956,10 +4953,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -4967,10 +4964,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>

--- a/global_variable_template_new.xlsx
+++ b/global_variable_template_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15120" windowHeight="14220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15120" windowHeight="14220" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="399">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -1293,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1311,6 +1311,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1593,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2920,100 +2923,129 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/global_variable_template_new.xlsx
+++ b/global_variable_template_new.xlsx
@@ -2366,7 +2366,7 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2926,7 +2926,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2960,6 +2960,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>12000</v>
+      </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>

--- a/global_variable_template_new.xlsx
+++ b/global_variable_template_new.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="400">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -1233,6 +1233,9 @@
   </si>
   <si>
     <t>DUMMY_BIT_FALSE</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2926,7 +2929,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2960,8 +2963,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>12000</v>
+      <c r="A2" t="s">
+        <v>399</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
